--- a/ipl-2020-21-1210595/kolkata knight riders vs chennai super kings 21st match 1216501/Batting2.xlsx
+++ b/ipl-2020-21-1210595/kolkata knight riders vs chennai super kings 21st match 1216501/Batting2.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +402,9 @@
       <c r="G1" t="str">
         <v>Extras</v>
       </c>
+      <c r="H1" t="str">
+        <v>Total</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -548,9 +551,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10">
+      <c r="H10" t="str">
+        <v>157/5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
   </ignoredErrors>
 </worksheet>
 </file>